--- a/Result_data/SVM_10.xlsx
+++ b/Result_data/SVM_10.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -644,7 +644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>

--- a/Result_data/SVM_10.xlsx
+++ b/Result_data/SVM_10.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="105">
   <si>
     <t>### run_SVM_baseline ##################################################</t>
   </si>
@@ -325,6 +326,15 @@
   </si>
   <si>
     <t># Runtime: 33.747 secs</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -642,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A229"/>
+  <dimension ref="A2:A230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="A224" activeCellId="9" sqref="A17 A40 A63 A86 A109 A132 A155 A178 A201 A224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,904 +663,1152 @@
     <col min="1" max="1" width="91.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>76</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>94</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DAF4F02-E4B4-4666-83CE-86641ECDB45F}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="E1">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="F1">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="G1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="E2">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="F2">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="G2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="E3">
+        <v>0.66</v>
+      </c>
+      <c r="F3">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="G3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="E4">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="F4">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="G4">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="E5">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="F5">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="G5">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="E6">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="F6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="G6">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="E7">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="F7">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="G7">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8">
+        <v>0.66</v>
+      </c>
+      <c r="E8">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="F8">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="G8">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="E9">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F9">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="G9">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="E10">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="F10">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="G10">
+        <v>1600</v>
       </c>
     </row>
   </sheetData>
